--- a/tests/Core.Tests/Import/SubmissionLinks/Stubs/Submission-links.xlsx
+++ b/tests/Core.Tests/Import/SubmissionLinks/Stubs/Submission-links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>eissn</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>http://campus.usal.es/~revistas_trabajo/index.php/1130-2887/submission</t>
+  </si>
+  <si>
+    <t>2076-3387</t>
+  </si>
+  <si>
+    <t>http://susy.mdpi.com</t>
   </si>
 </sst>
 </file>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,41 +453,49 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -490,13 +504,14 @@
     <sortCondition ref="C1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 
